--- a/biology/Zoologie/Greta_(insecte)/Greta_(insecte).xlsx
+++ b/biology/Zoologie/Greta_(insecte)/Greta_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Greta regroupe des insectes lépidoptères diurnes de la famille des Nymphalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des espèces selon NCBI[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Greta andromica (Hewitson, [1855])
-Greta annette (Guérin-Méneville, [1844])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Greta andromica (Hewitson, )
+Greta annette (Guérin-Méneville, )
 Greta hermana (Haensch, 1903).
 Greta oto (Hewitson, 1854).
 Greta polissena (Hewitson, 1863)
@@ -546,11 +560,13 @@
           <t>Liste des espèces selon funet[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Greta alphesiboea (Hewitson, 1869)
-Greta andromica (Hewitson, [1855])
-Greta annette (Guérin-Méneville, [1844])
+Greta andromica (Hewitson, )
+Greta annette (Guérin-Méneville, )
 Greta cubana (Herrich-Schäffer, 1862)
 Greta depauperata (Boisduval, 1870)
 Greta dercetis (Doubleday, 1847)
